--- a/数据整理/stocks/A股/上证主板/600587-新华医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/600587-新华医疗.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1039,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,17 +1051,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1070,13 +1091,559 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3163</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2416</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519125</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2255</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519176</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>970032</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>970033</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东海证券海睿进取灵活配置混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>14</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600587-新华医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/600587-新华医疗.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.2</v>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1637,13 +1680,309 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>14</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.87</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600587-新华医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/600587-新华医疗.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519171</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>浦银安盛医疗健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.55</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.15</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6862</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000780</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.36</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3134</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="4">
@@ -580,454 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519125</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浦银安盛消费升级混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.31</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1915</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008037</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴银先锋成长混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>76.06</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1642</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011349</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>淳厚现代服务业股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.91</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1299</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009898</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>民生加银医药健康股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.57</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1147</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519176</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>浦银安盛消费升级混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>84.31</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0954</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519120</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>浦银安盛新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.71</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0709</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160921</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成多策略混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>23.36</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0300</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006072</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>民生加银创新成长混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>83.29</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0272</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011350</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>淳厚现代服务业股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.91</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>519175</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>浦银安盛经济带崛起灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>33.22</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0181</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008038</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>兴银先锋成长混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>76.06</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001474</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>兴银丰盈灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>85.46</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.87</v>
       </c>
     </row>
   </sheetData>
@@ -1036,6 +532,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1585,13 +1403,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1642,36 +1460,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004157</t>
+          <t>519171</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信诚至诚灵活配置混合A</t>
+          <t>浦银安盛医疗健康灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>17.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>22.52</t>
+          <t>90.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0251</t>
+          <t>0.6862</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1680,36 +1498,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005444</t>
+          <t>000780</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+          <t>鹏华医疗保健股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>59.68</t>
+          <t>91.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0162</t>
+          <t>0.3134</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1718,36 +1536,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004158</t>
+          <t>519125</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>信诚至诚灵活配置混合B</t>
+          <t>浦银安盛消费升级混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22.52</t>
+          <t>84.31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0113</t>
+          <t>0.1915</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1766,26 +1584,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.15</t>
+          <t>76.06</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0095</t>
+          <t>0.1642</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1794,32 +1612,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>014285</t>
+          <t>011349</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鑫元健康产业混合A</t>
+          <t>淳厚现代服务业股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>69.58</t>
+          <t>89.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0059</t>
+          <t>0.1299</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1832,36 +1650,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008038</t>
+          <t>009898</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>兴银先锋成长混合C</t>
+          <t>民生加银医药健康股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.15</t>
+          <t>92.57</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>3.24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0037</t>
+          <t>0.1147</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1870,120 +1688,302 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>014286</t>
+          <t>519176</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鑫元健康产业混合C</t>
+          <t>浦银安盛消费升级混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>69.58</t>
+          <t>84.31</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0954</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160921</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成多策略混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>33.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.87</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600587-新华医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/600587-新华医疗.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.2</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>14</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.87</v>
       </c>
     </row>
@@ -532,6 +549,898 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3596</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6990</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2046</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014220</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒越医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>30.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014221</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>恒越医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014285</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014286</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鑫元健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014282</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>60.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -853,7 +1762,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1403,7 +2312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600587-新华医疗.xlsx
+++ b/数据整理/stocks/A股/上证主板/600587-新华医疗.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>4.58</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.2</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.87</v>
       </c>
     </row>
@@ -549,6 +566,704 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>43.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004801</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008162</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>43.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004802</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浦银安盛安久回报定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014061</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1440,7 +2155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1762,7 +2477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2312,7 +3027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
